--- a/第三反復/振り返り/メトリクス（第三反復）.xlsx
+++ b/第三反復/振り返り/メトリクス（第三反復）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD45D4D-7A50-4C47-BB1C-9FD2BBE74734}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D920D3-6C5D-4CBC-8FB3-64CE3391572F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87F56169-4B9C-4EF4-A283-38621E448CD7}"/>
   </bookViews>
@@ -238,26 +238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>問題点①　Gameクラスのメソッドの数が多い
-⇒解決策１：GameクラスのshowBoardメソッドをBoardクラスにもたせる。</t>
-    <rPh sb="0" eb="3">
-      <t>モンダイテン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カイケツ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>サク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>問題点②LCOMの値が高い
 ⇒解決策：専用のメソッドを経由して、値を返すようにする。</t>
     <rPh sb="0" eb="3">
@@ -286,6 +266,35 @@
     </rPh>
     <rPh sb="34" eb="35">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題点①　Gameクラスのメソッドの数が多い（peivateを除いて集計したことで改善）
+⇒解決策１：GameクラスのshowBoardメソッドをBoardクラスにもたせる。</t>
+    <rPh sb="0" eb="3">
+      <t>モンダイテン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>サク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -311,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +336,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,9 +409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -409,10 +421,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,7 +758,7 @@
   <dimension ref="B2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -750,7 +771,7 @@
     <col min="8" max="8" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
@@ -767,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
@@ -787,32 +808,32 @@
         <v>6</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11">
-        <v>12</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="F4" s="14">
+        <v>7</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -830,67 +851,67 @@
       <c r="F5" s="1">
         <v>36</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>5</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>10</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0.8</v>
       </c>
       <c r="G8" s="6"/>
@@ -959,10 +980,10 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -980,10 +1001,10 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -1001,10 +1022,10 @@
       <c r="F5" s="1">
         <v>14</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -1022,10 +1043,10 @@
       <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
@@ -1043,10 +1064,10 @@
       <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
@@ -1133,10 +1154,10 @@
       <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -1154,10 +1175,10 @@
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -1175,10 +1196,10 @@
       <c r="F5" s="1">
         <v>34</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -1196,10 +1217,10 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
@@ -1217,10 +1238,10 @@
       <c r="F7" s="1">
         <v>7</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
@@ -1261,7 +1282,7 @@
   <dimension ref="B2:K11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:F8"/>
+      <selection activeCell="H3" sqref="H3:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1307,31 +1328,31 @@
       <c r="F3" s="1">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11">
-        <v>12</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="F4" s="14">
+        <v>7</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -1349,10 +1370,10 @@
       <c r="F5" s="1">
         <v>36</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -1370,10 +1391,10 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
@@ -1391,25 +1412,25 @@
       <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0.8</v>
       </c>
       <c r="G8" s="6"/>
@@ -1481,10 +1502,10 @@
       <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -1502,10 +1523,10 @@
       <c r="F4" s="1">
         <v>6</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -1523,10 +1544,10 @@
       <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -1544,10 +1565,10 @@
       <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
@@ -1565,25 +1586,25 @@
       <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0.73</v>
       </c>
       <c r="G8" s="6"/>
@@ -1655,10 +1676,10 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -1676,10 +1697,10 @@
       <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -1697,10 +1718,10 @@
       <c r="F5" s="1">
         <v>13</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -1718,10 +1739,10 @@
       <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
@@ -1739,10 +1760,10 @@
       <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
@@ -1829,10 +1850,10 @@
       <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -1850,10 +1871,10 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -1871,10 +1892,10 @@
       <c r="F5" s="1">
         <v>15</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -1892,10 +1913,10 @@
       <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
@@ -1913,10 +1934,10 @@
       <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
@@ -2003,10 +2024,10 @@
       <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -2024,10 +2045,10 @@
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -2045,10 +2066,10 @@
       <c r="F5" s="1">
         <v>9</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -2066,10 +2087,10 @@
       <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
@@ -2087,10 +2108,10 @@
       <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
@@ -2177,10 +2198,10 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -2198,10 +2219,10 @@
       <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -2219,10 +2240,10 @@
       <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -2240,10 +2261,10 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
@@ -2261,10 +2282,10 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
@@ -2351,10 +2372,10 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -2372,10 +2393,10 @@
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -2393,10 +2414,10 @@
       <c r="F5" s="1">
         <v>20</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -2414,10 +2435,10 @@
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
@@ -2435,10 +2456,10 @@
       <c r="F7" s="1">
         <v>7</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
@@ -2525,10 +2546,10 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -2546,10 +2567,10 @@
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -2567,10 +2588,10 @@
       <c r="F5" s="1">
         <v>7</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -2588,10 +2609,10 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
@@ -2609,10 +2630,10 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
@@ -2646,4 +2667,238 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
+    <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ef71c9de-9867-437c-8375-3a1a59bfe133" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C301FC6F-623B-4018-9DF0-1B079D1E9544}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B61A0CD-507A-46C5-A8A1-6F1D7F6DF7F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57E0E271-C3CC-4760-9BAD-132B89E1C4FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>